--- a/biology/Zoologie/Eupeodes/Eupeodes.xlsx
+++ b/biology/Zoologie/Eupeodes/Eupeodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eupeodes regroupe des insectes diptères prédateurs de la famille des syrphidés, dont les larves ont pour proie principalement les pucerons sur les arbres fruitiers, les cultures légumières, les grandes cultures...
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Metasyrphus</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Liste d'espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eupeodes abiskoensis
